--- a/src/unittest/excel_file/arrayParsing_error_test.xlsx
+++ b/src/unittest/excel_file/arrayParsing_error_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="96">
   <si>
     <t>Vlans ID</t>
   </si>
@@ -1337,7 +1337,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1832,15 +1832,9 @@
       <c r="H16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3"/>
